--- a/Excel/draw_tool.xlsx
+++ b/Excel/draw_tool.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -70,18 +70,9 @@
     <t>For very short lengths of audio up to 128 samples long, you can smooth out audio automatically with Repair tool under the Effect Menu</t>
   </si>
   <si>
-    <t>ड्रॉ टूल - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>ड्रॉ टूल</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>ड्रॉ टूल आपल्याला वेव्हफॉर्म पुन्हा तयार करण्यास सक्षम करते; याचा उपयोग वैयक्तिक नमुने करण्यासाठी व्हॉल्यूम बदल करण्यासाठी किंवा क्लिक्स / आवाजावर परिणाम दुरुस्ती करण्यासाठी केला जाऊ शकतो. विराम दिल्यास ड्रॉ टूल अनुपलब्ध आहे.</t>
   </si>
   <si>
@@ -94,12 +85,6 @@
     <t>त्या साधनांविषयी अधिक जाणून घेण्यासाठी प्रतिमेमधील इतर साधनांवर क्लिक करा.</t>
   </si>
   <si>
-    <t>जास्तीत जास्त पातळीच्या जवळ झूम केल्यावर, ड्रॉ टूल आपल्याला वैयक्तिक ऑडिओ नमुन्यांची व्हॉल्यूम पातळी समायोजित करण्यास सक्षम करते. नमुना ट्रॅकच्या मध्यभागी क्षैतिज रेषेच्या अगदी जवळ असेल तर नमुना शांत असेल.</t>
-  </si>
-  <si>
-    <t>अरुंद क्लिक्स आणि ऑडिओमधील पॉपचा वापर करण्यासाठी नमुन्यांचा समोच्च नितळ वापरुन काढून टाकण्यासाठी याचा वापर केला जाऊ शकतो, जेणेकरून एक नमुना त्याच्या शेजार्‍यांच्या अगदी वेगळ्या उभ्या स्थितीत नसतो.</t>
-  </si>
-  <si>
     <t>ड्रॉ टूल वापरण्यासाठी</t>
   </si>
   <si>
@@ -115,7 +100,22 @@
     <t>हे स्पेक्ट्रोग्राम दृश्यात कार्य करत नाही</t>
   </si>
   <si>
-    <t>१२8 नमुन्यांपर्यंतच्या ऑडिओच्या अगदी लहान लांबीसाठी, आपण प्रभाव मेनू अंतर्गत दुरुस्ती साधनासह स्वयंचलितपणे ऑडिओ गुळगुळीत करू शकता.</t>
+    <t>ड्रॉ टूल - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>जास्तीत जास्त पातळीच्या जवळ झूम केल्यावर, ड्रॉ टूल आपल्याला वैयक्तिक ध्वनी नमुन्यांची आवाजाची पातळी समायोजित करण्यास सक्षम करते. नमुना गीतपट्टाच्या मध्यभागी क्षैतिज रेषेच्या अगदी जवळ असेल तर नमुना शांत असेल.</t>
+  </si>
+  <si>
+    <t>अरुंद क्लिक्स आणि ध्वनीमधील पॉपचा वापर करण्यासाठी नमुन्यांचा समोच्च नितळ वापरुन काढून टाकण्यासाठी याचा वापर केला जाऊ शकतो, जेणेकरून एक नमुना त्याच्या शेजार्‍यांच्या अगदी वेगळ्या उभ्या स्थितीत नसतो.</t>
+  </si>
+  <si>
+    <t>१२८ नमुन्यांपर्यंतच्या ध्वनीच्या अगदी लहान लांबीसाठी, आपण प्रभाव मेनू अंतर्गत दुरुस्ती साधनासह स्वयंचलितपणे ध्वनी गुळगुळीत करू शकता.</t>
   </si>
 </sst>
 </file>
@@ -475,9 +475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -495,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -676,5 +682,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>